--- a/src/metadata/grouped/GroupedBy:['Target']/tau_OH(slope)/Metadata:tau_OH(slope).xlsx
+++ b/src/metadata/grouped/GroupedBy:['Target']/tau_OH(slope)/Metadata:tau_OH(slope).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1219,241 +1219,241 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>29.93955319148936</v>
+        <v>0.9119047619047619</v>
       </c>
       <c r="C5" t="n">
-        <v>29.93955319148936</v>
+        <v>0.9119047619047619</v>
       </c>
       <c r="D5" t="n">
-        <v>74.75010638297873</v>
+        <v>9.128066666666665</v>
       </c>
       <c r="E5" t="n">
-        <v>74.75146808510638</v>
+        <v>9.128066666666665</v>
       </c>
       <c r="F5" t="n">
-        <v>632.1914893617021</v>
+        <v>560</v>
       </c>
       <c r="G5" t="n">
-        <v>881.9787234042553</v>
+        <v>1030</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8459780285063829</v>
+        <v>0.8872705358619047</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003676093172340425</v>
+        <v>0.001797595893333333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9079047946</v>
+        <v>0.9868997858619049</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8789130363106382</v>
+        <v>0.9813722812828573</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8773135968148936</v>
+        <v>0.8578279077000001</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7505104060468084</v>
+        <v>0.7065920580466667</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8306131686531916</v>
+        <v>0.8954655911466666</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.635</v>
+        <v>6.08</v>
       </c>
       <c r="R5" t="n">
-        <v>0.66</v>
+        <v>6.08</v>
       </c>
       <c r="S5" t="n">
-        <v>598</v>
+        <v>560</v>
       </c>
       <c r="T5" t="n">
-        <v>773</v>
+        <v>1030</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3362352235</v>
+        <v>0.6493852642</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0003720199</v>
+        <v>0.0001849849</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0452627059</v>
+        <v>0.9657523821</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0024608071</v>
+        <v>0.9424191463</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.531952424</v>
+        <v>0.0706319394</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.4187029407</v>
+        <v>0.3545168841</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2829435769</v>
+        <v>0.4593977273</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.8</v>
+        <v>1.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.8</v>
+        <v>1.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>100</v>
+        <v>10.133</v>
       </c>
       <c r="AE5" t="n">
-        <v>100</v>
+        <v>10.133</v>
       </c>
       <c r="AF5" t="n">
-        <v>773</v>
+        <v>560</v>
       </c>
       <c r="AG5" t="n">
-        <v>900</v>
+        <v>1030</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.9610718389</v>
+        <v>0.9645057748</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0158694535</v>
+        <v>0.0123637016</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.9965388439</v>
+        <v>0.997657244</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.9936186671</v>
+        <v>0.9945713356</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.9740567573</v>
+        <v>0.9808544878</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.9309646368</v>
+        <v>0.9226366655</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.9839267175999999</v>
+        <v>0.9920946291</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.527</v>
+        <v>1</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.527</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>90</v>
+        <v>10.133</v>
       </c>
       <c r="AR5" t="n">
-        <v>90</v>
+        <v>10.133</v>
       </c>
       <c r="AS5" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="AT5" t="n">
-        <v>898</v>
+        <v>1030</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.894939319</v>
+        <v>0.8990550522</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0019747396</v>
+        <v>0.0012276132</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.9831503606999999</v>
+        <v>0.9895383008999999</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.9721125261</v>
+        <v>0.9815180610999999</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.9151289028</v>
+        <v>0.8809618256</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.785581658</v>
+        <v>0.70937175</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.8588673306</v>
+        <v>0.9444587766</v>
       </c>
       <c r="BB5" t="n">
-        <v>38.25266699699485</v>
+        <v>0.4803606322299286</v>
       </c>
       <c r="BC5" t="n">
-        <v>38.25266699699485</v>
+        <v>0.4803606322299286</v>
       </c>
       <c r="BD5" t="n">
-        <v>32.39898494064418</v>
+        <v>1.757018558998927</v>
       </c>
       <c r="BE5" t="n">
-        <v>32.3958028916328</v>
+        <v>1.757018558998927</v>
       </c>
       <c r="BF5" t="n">
-        <v>55.23650269832692</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>39.83688991795012</v>
+        <v>0</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.1213392006633614</v>
+        <v>0.06198892977566858</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.00336590778684376</v>
+        <v>0.00180333909056913</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.1986357666621048</v>
+        <v>0.008160550860882033</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.2575465654557684</v>
+        <v>0.008700872197523329</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.1038369365407132</v>
+        <v>0.1186796733124424</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.1265764805216439</v>
+        <v>0.1328141473822382</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.1406274043086776</v>
+        <v>0.1266383600283395</v>
       </c>
       <c r="BO5" t="n">
-        <v>1463.266532382979</v>
+        <v>0.2307463369963368</v>
       </c>
       <c r="BP5" t="n">
-        <v>1463.266532382979</v>
+        <v>0.2307463369963368</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1049.694225184089</v>
+        <v>3.087114216666665</v>
       </c>
       <c r="BR5" t="n">
-        <v>1049.488044993524</v>
+        <v>3.087114216666665</v>
       </c>
       <c r="BS5" t="n">
-        <v>3051.071230342277</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>1586.977798334876</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0147232016176235</v>
+        <v>0.00384262741473277</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.132933522953546e-05</v>
+        <v>3.252031875574698e-06</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.03945616779744214</v>
+        <v>6.659459035304249e-05</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.06633023337806238</v>
+        <v>7.570517699763447e-05</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0107821093901601</v>
+        <v>0.01408486485754805</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0160216054212461</v>
+        <v>0.01763959774487088</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.01977606684259628</v>
+        <v>0.01603727423066734</v>
       </c>
       <c r="CB5" t="n">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -1461,49 +1461,49 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6440243902439025</v>
+        <v>19.32409243697479</v>
       </c>
       <c r="C6" t="n">
-        <v>3.066463414634146</v>
+        <v>19.32409243697479</v>
       </c>
       <c r="D6" t="n">
-        <v>9.450219512195122</v>
+        <v>6.205285714285714</v>
       </c>
       <c r="E6" t="n">
-        <v>9.450219512195122</v>
+        <v>6.332932773109244</v>
       </c>
       <c r="F6" t="n">
-        <v>353.0731707317073</v>
+        <v>1115.553361344538</v>
       </c>
       <c r="G6" t="n">
-        <v>353.0731707317073</v>
+        <v>1426.097983193277</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8218782454292682</v>
+        <v>0.8302754368915967</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01960091641219512</v>
+        <v>0.004132283906722689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8330293996463415</v>
+        <v>0.9044859118781513</v>
       </c>
       <c r="K6" t="n">
-        <v>0.763313219202439</v>
+        <v>0.8502290493050421</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8582280089219512</v>
+        <v>0.8766292993957984</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7257257355170731</v>
+        <v>0.7722968681067227</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8754865546365853</v>
+        <v>0.7890057463605042</v>
       </c>
       <c r="O6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -1512,76 +1512,76 @@
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="T6" t="n">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="U6" t="n">
-        <v>-1</v>
+        <v>0.4649397051</v>
       </c>
       <c r="V6" t="n">
-        <v>-1</v>
+        <v>0.0002641955</v>
       </c>
       <c r="W6" t="n">
-        <v>-1</v>
+        <v>0.55060393</v>
       </c>
       <c r="X6" t="n">
-        <v>-1</v>
+        <v>0.3918447426</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1</v>
+        <v>0.0335877087</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1</v>
+        <v>0.4287192097</v>
       </c>
       <c r="AA6" t="n">
-        <v>-1</v>
+        <v>0.1456552092</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AC6" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="AD6" t="n">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="AE6" t="n">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="AF6" t="n">
-        <v>484</v>
+        <v>1279</v>
       </c>
       <c r="AG6" t="n">
-        <v>484</v>
+        <v>1650</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.9507240849</v>
+        <v>0.9612811595</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0145067534</v>
+        <v>0.0145091733</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.9895781236</v>
+        <v>0.9969526648</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.9573593666</v>
+        <v>0.9911911353</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.9610620402</v>
+        <v>0.9896239704000001</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.8932650136</v>
+        <v>0.9435026164</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9922334541</v>
+        <v>0.9870299435</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.013</v>
@@ -1590,112 +1590,112 @@
         <v>1.013</v>
       </c>
       <c r="AS6" t="n">
-        <v>353</v>
+        <v>1100</v>
       </c>
       <c r="AT6" t="n">
-        <v>353</v>
+        <v>1400</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.9049020785</v>
+        <v>0.8410934616</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.004013299</v>
+        <v>0.0025225938</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.9120904661</v>
+        <v>0.9784882242</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.8387392524</v>
+        <v>0.9688573703</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.9216126322</v>
+        <v>0.9310379724</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.8195266705000001</v>
+        <v>0.7866098565</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.9630253314</v>
+        <v>0.8627921061</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.2110841642337101</v>
+        <v>38.58525709672278</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.457002592611986</v>
+        <v>38.58525709672278</v>
       </c>
       <c r="BD6" t="n">
-        <v>32.4031161144358</v>
+        <v>11.16367811490768</v>
       </c>
       <c r="BE6" t="n">
-        <v>32.4031161144358</v>
+        <v>11.31494707757502</v>
       </c>
       <c r="BF6" t="n">
-        <v>65.16302258332652</v>
+        <v>46.57334953501513</v>
       </c>
       <c r="BG6" t="n">
-        <v>65.16302258332652</v>
+        <v>66.59470407736828</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.3080710630402415</v>
+        <v>0.1060207453839522</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.1569657022566555</v>
+        <v>0.003519299886708269</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.3108208923681603</v>
+        <v>0.115959333928033</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.3096564224505683</v>
+        <v>0.1944649928604313</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.3040215181020082</v>
+        <v>0.2016792479320472</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.3071870510397832</v>
+        <v>0.1176798227611561</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.3243004216970186</v>
+        <v>0.1879853106157976</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.04455652439024391</v>
+        <v>1488.822065220196</v>
       </c>
       <c r="BP6" t="n">
-        <v>2.122856554878049</v>
+        <v>1488.822065220196</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1049.961933925609</v>
+        <v>124.6277090532687</v>
       </c>
       <c r="BR6" t="n">
-        <v>1049.961933925609</v>
+        <v>128.0280273683236</v>
       </c>
       <c r="BS6" t="n">
-        <v>4246.219512195123</v>
+        <v>2169.076886910694</v>
       </c>
       <c r="BT6" t="n">
-        <v>4246.219512195123</v>
+        <v>4434.854611152252</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.09490777988274442</v>
+        <v>0.01124039845176882</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.02463823168492503</v>
+        <v>1.238547169258483e-05</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.09660962713253948</v>
+        <v>0.01344656712503306</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.09588709996488486</v>
+        <v>0.03781663344820761</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.09242908346904968</v>
+        <v>0.04067451904643617</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.09436388432651839</v>
+        <v>0.01384854068509711</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.1051707635128641</v>
+        <v>0.0353384770073179</v>
       </c>
       <c r="CB6" t="n">
-        <v>41</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -1703,241 +1703,241 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5147297297297297</v>
+        <v>0.6440243902439025</v>
       </c>
       <c r="C7" t="n">
-        <v>24.83905405405405</v>
+        <v>3.066463414634146</v>
       </c>
       <c r="D7" t="n">
-        <v>11.4437027027027</v>
+        <v>9.450219512195122</v>
       </c>
       <c r="E7" t="n">
-        <v>11.57235135135135</v>
+        <v>9.450219512195122</v>
       </c>
       <c r="F7" t="n">
-        <v>1085.737837837838</v>
+        <v>353.0731707317073</v>
       </c>
       <c r="G7" t="n">
-        <v>1911.486486486486</v>
+        <v>353.0731707317073</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8422508236459459</v>
+        <v>0.8218782454292682</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004047633908108109</v>
+        <v>-0.01960091641219512</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8962683031432432</v>
+        <v>0.8330293996463415</v>
       </c>
       <c r="K7" t="n">
-        <v>0.814384108745946</v>
+        <v>0.763313219202439</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9216694617108109</v>
+        <v>0.8582280089219512</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7662450083513513</v>
+        <v>0.7257257355170731</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8274690299891891</v>
+        <v>0.8754865546365853</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>882</v>
+        <v>250</v>
       </c>
       <c r="T7" t="n">
-        <v>1702</v>
+        <v>250</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5970137135</v>
+        <v>-1</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0003933617</v>
+        <v>-1</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5963632551</v>
+        <v>-1</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5716645666</v>
+        <v>-1</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7073499865</v>
+        <v>-1</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5126257609</v>
+        <v>-1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>50.663</v>
+        <v>150</v>
       </c>
       <c r="AE7" t="n">
-        <v>50.663</v>
+        <v>150</v>
       </c>
       <c r="AF7" t="n">
-        <v>1200</v>
+        <v>484</v>
       </c>
       <c r="AG7" t="n">
-        <v>2374</v>
+        <v>484</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.9594318944</v>
+        <v>0.9507240849</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0121578455</v>
+        <v>0.0145067534</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.9983894842</v>
+        <v>0.9895781236</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.9957018801</v>
+        <v>0.9573593666</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.9698015395</v>
+        <v>0.9610620402</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.9183909926</v>
+        <v>0.8932650136</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.982625636</v>
+        <v>0.9922334541</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.67</v>
+        <v>3.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.621</v>
+        <v>1.013</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.86</v>
+        <v>1.013</v>
       </c>
       <c r="AS7" t="n">
-        <v>1072.6</v>
+        <v>353</v>
       </c>
       <c r="AT7" t="n">
-        <v>1924.29</v>
+        <v>353</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.8510022614</v>
+        <v>0.9049020785</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.0041723836</v>
+        <v>0.004013299</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.9088538735</v>
+        <v>0.9120904661</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.7662399797</v>
+        <v>0.8387392524</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.9418624665999999</v>
+        <v>0.9216126322</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.7861768278</v>
+        <v>0.8195266705000001</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.9017174178</v>
+        <v>0.9630253314</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.4245744698877695</v>
+        <v>0.2110841642337101</v>
       </c>
       <c r="BC7" t="n">
-        <v>43.2011072645816</v>
+        <v>1.457002592611986</v>
       </c>
       <c r="BD7" t="n">
-        <v>18.21456647372717</v>
+        <v>32.4031161144358</v>
       </c>
       <c r="BE7" t="n">
-        <v>18.14785075156011</v>
+        <v>32.4031161144358</v>
       </c>
       <c r="BF7" t="n">
-        <v>94.4747844411152</v>
+        <v>65.16302258332652</v>
       </c>
       <c r="BG7" t="n">
-        <v>144.408030482615</v>
+        <v>65.16302258332652</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.08481076445710742</v>
+        <v>0.3080710630402415</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.002831100181821799</v>
+        <v>0.1569657022566555</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.1077099594981366</v>
+        <v>0.3108208923681603</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.1558566714522772</v>
+        <v>0.3096564224505683</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.05176327836859602</v>
+        <v>0.3040215181020082</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0899764062457713</v>
+        <v>0.3071870510397832</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.1933762126487782</v>
+        <v>0.3243004216970186</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.1802634804804805</v>
+        <v>0.04455652439024391</v>
       </c>
       <c r="BP7" t="n">
-        <v>1866.335668885886</v>
+        <v>2.122856554878049</v>
       </c>
       <c r="BQ7" t="n">
-        <v>331.7704318258259</v>
+        <v>1049.961933925609</v>
       </c>
       <c r="BR7" t="n">
-        <v>329.3444869009008</v>
+        <v>1049.961933925609</v>
       </c>
       <c r="BS7" t="n">
-        <v>8925.484895195184</v>
+        <v>4246.219512195123</v>
       </c>
       <c r="BT7" t="n">
-        <v>20853.67926786786</v>
+        <v>4246.219512195123</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.007192865767798956</v>
+        <v>0.09490777988274442</v>
       </c>
       <c r="BV7" t="n">
-        <v>8.015128239511424e-06</v>
+        <v>0.02463823168492503</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.01160143537509023</v>
+        <v>0.09660962713253948</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.02429130203618307</v>
+        <v>0.09588709996488486</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.002679436987464761</v>
+        <v>0.09242908346904968</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.008095753680904072</v>
+        <v>0.09436388432651839</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.03739435961838547</v>
+        <v>0.1051707635128641</v>
       </c>
       <c r="CB7" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -1945,43 +1945,43 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6422181069958848</v>
+        <v>0.9555312500000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6422181069958848</v>
+        <v>0.9555312500000001</v>
       </c>
       <c r="D8" t="n">
-        <v>7.837423868312757</v>
+        <v>9.945281250000001</v>
       </c>
       <c r="E8" t="n">
-        <v>7.892567901234568</v>
+        <v>10.104875</v>
       </c>
       <c r="F8" t="n">
-        <v>890.9687242798353</v>
+        <v>1458.4734375</v>
       </c>
       <c r="G8" t="n">
-        <v>1179.078925925926</v>
+        <v>1799.3459375</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8709269386329218</v>
+        <v>0.7468071146375</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0102177747</v>
+        <v>0.0066894549375</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9395102727502058</v>
+        <v>0.728746840934375</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9302453533954733</v>
+        <v>0.58430716179375</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8794118266193416</v>
+        <v>0.892281255240625</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7665747811127572</v>
+        <v>0.8033842591843749</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8549096989596707</v>
+        <v>0.7360615853</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1990,196 +1990,196 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.467</v>
+        <v>0.329</v>
       </c>
       <c r="R8" t="n">
-        <v>0.467</v>
+        <v>0.329</v>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="T8" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="U8" t="n">
-        <v>-1</v>
+        <v>0.2948813605</v>
       </c>
       <c r="V8" t="n">
-        <v>-1</v>
+        <v>0.0003093007</v>
       </c>
       <c r="W8" t="n">
-        <v>-1</v>
+        <v>0.0971090988</v>
       </c>
       <c r="X8" t="n">
-        <v>-1</v>
+        <v>0.0682137911</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1</v>
+        <v>0.2665514983</v>
       </c>
       <c r="Z8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-1</v>
+        <v>0.0986330614</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AE8" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AF8" t="n">
-        <v>986</v>
+        <v>1875.56</v>
       </c>
       <c r="AG8" t="n">
-        <v>1262</v>
+        <v>2107.01</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.9680961335</v>
+        <v>0.953162429</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0167225395</v>
+        <v>0.0205058026</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.9973059754</v>
+        <v>0.9974062707</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.9934719576</v>
+        <v>0.992933812</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.9862664711</v>
+        <v>0.9759122342</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.9603274182</v>
+        <v>0.9657967203</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.9943449702</v>
+        <v>0.9756852864</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>9.869</v>
+        <v>2.726</v>
       </c>
       <c r="AR8" t="n">
-        <v>9.869</v>
+        <v>3.2475</v>
       </c>
       <c r="AS8" t="n">
-        <v>900</v>
+        <v>1415.635</v>
       </c>
       <c r="AT8" t="n">
-        <v>1200</v>
+        <v>1799.415</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.915602657</v>
+        <v>0.7892155563000001</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0016704548</v>
+        <v>0.00521911345</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.9895783199</v>
+        <v>0.7773537034</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.9823400682</v>
+        <v>0.57177104945</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.9387592451</v>
+        <v>0.9374387981000001</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.7999984017</v>
+        <v>0.8390565167499999</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.9023517037</v>
+        <v>0.8580700022500001</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.4509912472823916</v>
+        <v>0.5955592104782562</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.4509912472823916</v>
+        <v>0.5955592104782562</v>
       </c>
       <c r="BD8" t="n">
-        <v>4.597166662151074</v>
+        <v>18.02152823929306</v>
       </c>
       <c r="BE8" t="n">
-        <v>4.75408737130553</v>
+        <v>17.95942221886561</v>
       </c>
       <c r="BF8" t="n">
-        <v>53.49973891588905</v>
+        <v>164.3389868849844</v>
       </c>
       <c r="BG8" t="n">
-        <v>48.29760768165799</v>
+        <v>123.8212632440439</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.2225115017336256</v>
+        <v>0.1649661755238264</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.1109076696325963</v>
+        <v>0.00507316059184045</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.2352635503594669</v>
+        <v>0.220648068938262</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.2431009434359486</v>
+        <v>0.2354952819773979</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.2585608950203079</v>
+        <v>0.1351870804587669</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.2163400810682947</v>
+        <v>0.1806155619193917</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.2352702367780324</v>
+        <v>0.2652800186522364</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.2033931051253274</v>
+        <v>0.3546907731854839</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.2033931051253274</v>
+        <v>0.3546907731854839</v>
       </c>
       <c r="BQ8" t="n">
-        <v>21.13394131959324</v>
+        <v>324.7754800796371</v>
       </c>
       <c r="BR8" t="n">
-        <v>22.60134673400673</v>
+        <v>322.5408464354838</v>
       </c>
       <c r="BS8" t="n">
-        <v>2862.222064068294</v>
+        <v>27007.30261038306</v>
       </c>
       <c r="BT8" t="n">
-        <v>2332.658907771348</v>
+        <v>15331.70523135081</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.04951136840375326</v>
+        <v>0.02721383906695789</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.01230051118333311</v>
+        <v>2.573695839060295e-05</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.05534893812774142</v>
+        <v>0.04868557032618401</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.05909806869944827</v>
+        <v>0.05545802783361413</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.06685373643370268</v>
+        <v>0.01827554672296512</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.04680303067663635</v>
+        <v>0.03262198120745761</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.05535208431359144</v>
+        <v>0.07037348829613091</v>
       </c>
       <c r="CB8" t="n">
-        <v>243</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -2187,189 +2187,241 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8</v>
+        <v>0.6422181069958848</v>
       </c>
       <c r="C9" t="n">
-        <v>4.03</v>
+        <v>0.6422181069958848</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>7.837423868312757</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>7.892567901234568</v>
       </c>
       <c r="F9" t="n">
-        <v>3500</v>
+        <v>890.9687242798353</v>
       </c>
       <c r="G9" t="n">
-        <v>3500</v>
+        <v>1179.078925925926</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8895815919</v>
+        <v>0.8709269386329218</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0051060776</v>
+        <v>-0.0102177747</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8919059186</v>
+        <v>0.9395102727502058</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8175545769</v>
+        <v>0.9302453533954733</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9065359506</v>
+        <v>0.8794118266193416</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7898711318</v>
+        <v>0.7665747811127572</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9658109867</v>
+        <v>0.8549096989596707</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0.467</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0.467</v>
       </c>
       <c r="S9" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="U9" t="n">
-        <v>0.8895815919</v>
+        <v>-1</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0051060776</v>
+        <v>-1</v>
       </c>
       <c r="W9" t="n">
-        <v>0.8919059186</v>
+        <v>-1</v>
       </c>
       <c r="X9" t="n">
-        <v>0.8175545769</v>
+        <v>-1</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9065359506</v>
+        <v>-1</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.7898711318</v>
+        <v>-1</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.9658109867</v>
+        <v>-1</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.8</v>
+        <v>2.99</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.03</v>
+        <v>2.99</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AF9" t="n">
-        <v>3500</v>
+        <v>986</v>
       </c>
       <c r="AG9" t="n">
-        <v>3500</v>
+        <v>1262</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.8895815919</v>
+        <v>0.9680961335</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0051060776</v>
+        <v>0.0167225395</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.8919059186</v>
+        <v>0.9973059754</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.8175545769</v>
+        <v>0.9934719576</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.9065359506</v>
+        <v>0.9862664711</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.7898711318</v>
+        <v>0.9603274182</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.9658109867</v>
+        <v>0.9943449702</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>4.03</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1</v>
+        <v>9.869</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>9.869</v>
       </c>
       <c r="AS9" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="AT9" t="n">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.8895815919</v>
+        <v>0.915602657</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0051060776</v>
+        <v>0.0016704548</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.8919059186</v>
+        <v>0.9895783199</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.8175545769</v>
+        <v>0.9823400682</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.9065359506</v>
+        <v>0.9387592451</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.7898711318</v>
+        <v>0.7999984017</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.9658109867</v>
-      </c>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="inlineStr"/>
-      <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr"/>
-      <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr"/>
-      <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="inlineStr"/>
-      <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
-      <c r="BX9" t="inlineStr"/>
-      <c r="BY9" t="inlineStr"/>
-      <c r="BZ9" t="inlineStr"/>
-      <c r="CA9" t="inlineStr"/>
+        <v>0.9023517037</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.4509912472823916</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.4509912472823916</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>4.597166662151074</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>4.75408737130553</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>53.49973891588905</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>48.29760768165799</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.2225115017336256</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.1109076696325963</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.2352635503594669</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.2431009434359486</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.2585608950203079</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.2163400810682947</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.2352702367780324</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.2033931051253274</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.2033931051253274</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>21.13394131959324</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>22.60134673400673</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>2862.222064068294</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>2332.658907771348</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.04951136840375326</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.01230051118333311</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.05534893812774142</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.05909806869944827</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.06685373643370268</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.04680303067663635</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.05535208431359144</v>
+      </c>
       <c r="CB9" t="n">
-        <v>1</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10">
@@ -2377,241 +2429,189 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9702258064516129</v>
+        <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9702258064516129</v>
+        <v>4.03</v>
       </c>
       <c r="D10" t="n">
-        <v>10.23341935483871</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>10.39816129032258</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1463.585483870968</v>
+        <v>3500</v>
       </c>
       <c r="G10" t="n">
-        <v>1805.776451612903</v>
+        <v>3500</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7536773520354839</v>
+        <v>0.8895815919</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006695139219354838</v>
+        <v>0.0051060776</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7319749364935483</v>
+        <v>0.8919059186</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5846029925032258</v>
+        <v>0.8175545769</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8920433738967742</v>
+        <v>0.9065359506</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8001952177580646</v>
+        <v>0.7898711318</v>
       </c>
       <c r="N10" t="n">
-        <v>0.756623795748387</v>
+        <v>0.9658109867</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>4.03</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.329</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>0.329</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>1250</v>
+        <v>3500</v>
       </c>
       <c r="T10" t="n">
-        <v>1604.1</v>
+        <v>3500</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2948813605</v>
+        <v>0.8895815919</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0003093007</v>
+        <v>0.0051060776</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0971090988</v>
+        <v>0.8919059186</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0682137911</v>
+        <v>0.8175545769</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2665514983</v>
+        <v>0.9065359506</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>0.7898711318</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.1236652135</v>
+        <v>0.9658109867</v>
       </c>
       <c r="AB10" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>3</v>
+        <v>4.03</v>
       </c>
       <c r="AD10" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>1875.56</v>
+        <v>3500</v>
       </c>
       <c r="AG10" t="n">
-        <v>2107.01</v>
+        <v>3500</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.953162429</v>
+        <v>0.8895815919</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0205058026</v>
+        <v>0.0051060776</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.9974062707</v>
+        <v>0.8919059186</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.992933812</v>
+        <v>0.8175545769</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.9759122342</v>
+        <v>0.9065359506</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.9657967203</v>
+        <v>0.7898711318</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.9756852864</v>
+        <v>0.9658109867</v>
       </c>
       <c r="AO10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>1</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AR10" t="n">
         <v>1</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>2.761</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>3.375</v>
-      </c>
       <c r="AS10" t="n">
-        <v>1425.87</v>
+        <v>3500</v>
       </c>
       <c r="AT10" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.7946846841</v>
+        <v>0.8895815919</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0047761764</v>
+        <v>0.0051060776</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.791295608</v>
+        <v>0.8919059186</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.5684056891</v>
+        <v>0.8175545769</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.9421818052000001</v>
+        <v>0.9065359506</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.8363531419</v>
+        <v>0.7898711318</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.8794307609000001</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0.5994778677970477</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0.5994778677970477</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>18.24434204856252</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>18.17822646849205</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>164.4488194918348</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>120.3137789988713</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0.1629730499669885</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0.005156916577235431</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0.2235259450995986</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0.2393819853400166</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0.1374149207786933</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0.1826830399073955</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0.2423603429224405</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>0.3593737139784947</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0.3593737139784947</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>332.8560167849463</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>330.4479175397848</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>27043.41423225806</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>14475.40541698924</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>0.02656021501554253</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>2.65937885845656e-05</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0.04996384813266875</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>0.05730373490532795</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0.01888286045261455</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>0.03337309306980706</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0.05873853582148298</v>
-      </c>
+        <v>0.9658109867</v>
+      </c>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
       <c r="CB10" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2861,241 +2861,241 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9119047619047619</v>
+        <v>0.5147297297297297</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9119047619047619</v>
+        <v>24.83905405405405</v>
       </c>
       <c r="D12" t="n">
-        <v>9.128066666666665</v>
+        <v>11.4437027027027</v>
       </c>
       <c r="E12" t="n">
-        <v>9.128066666666665</v>
+        <v>11.57235135135135</v>
       </c>
       <c r="F12" t="n">
-        <v>560</v>
+        <v>1085.737837837838</v>
       </c>
       <c r="G12" t="n">
-        <v>1030</v>
+        <v>1911.486486486486</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8872705358619047</v>
+        <v>0.8422508236459459</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001797595893333333</v>
+        <v>0.004047633908108109</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9868997858619049</v>
+        <v>0.8962683031432432</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9813722812828573</v>
+        <v>0.814384108745946</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8578279077000001</v>
+        <v>0.9216694617108109</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7065920580466667</v>
+        <v>0.7662450083513513</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8954655911466666</v>
+        <v>0.8274690299891891</v>
       </c>
       <c r="O12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.08</v>
+        <v>0.82</v>
       </c>
       <c r="R12" t="n">
-        <v>6.08</v>
+        <v>1.1</v>
       </c>
       <c r="S12" t="n">
-        <v>560</v>
+        <v>882</v>
       </c>
       <c r="T12" t="n">
-        <v>1030</v>
+        <v>1702</v>
       </c>
       <c r="U12" t="n">
-        <v>0.6493852642</v>
+        <v>0.5970137135</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0001849849</v>
+        <v>0.0003933617</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9657523821</v>
+        <v>0.5963632551</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9424191463</v>
+        <v>0.5716645666</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0706319394</v>
+        <v>0.7073499865</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.3545168841</v>
+        <v>0.5126257609</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.4593977273</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.5</v>
+        <v>100</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.133</v>
+        <v>50.663</v>
       </c>
       <c r="AE12" t="n">
-        <v>10.133</v>
+        <v>50.663</v>
       </c>
       <c r="AF12" t="n">
-        <v>560</v>
+        <v>1200</v>
       </c>
       <c r="AG12" t="n">
-        <v>1030</v>
+        <v>2374</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.9645057748</v>
+        <v>0.9594318944</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.0123637016</v>
+        <v>0.0121578455</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.997657244</v>
+        <v>0.9983894842</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.9945713356</v>
+        <v>0.9957018801</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.9808544878</v>
+        <v>0.9698015395</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.9226366655</v>
+        <v>0.9183909926</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.9920946291</v>
+        <v>0.982625636</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP12" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10.133</v>
+        <v>1.621</v>
       </c>
       <c r="AR12" t="n">
-        <v>10.133</v>
+        <v>1.86</v>
       </c>
       <c r="AS12" t="n">
-        <v>560</v>
+        <v>1072.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>1030</v>
+        <v>1924.29</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.8990550522</v>
+        <v>0.8510022614</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0012276132</v>
+        <v>0.0041723836</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.9895383008999999</v>
+        <v>0.9088538735</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.9815180610999999</v>
+        <v>0.7662399797</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.8809618256</v>
+        <v>0.9418624665999999</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.70937175</v>
+        <v>0.7861768278</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.9444587766</v>
+        <v>0.9017174178</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.4803606322299286</v>
+        <v>0.4245744698877695</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.4803606322299286</v>
+        <v>43.2011072645816</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.757018558998927</v>
+        <v>18.21456647372717</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.757018558998927</v>
+        <v>18.14785075156011</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>94.4747844411152</v>
       </c>
       <c r="BG12" t="n">
-        <v>0</v>
+        <v>144.408030482615</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.06198892977566858</v>
+        <v>0.08481076445710742</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.00180333909056913</v>
+        <v>0.002831100181821799</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.008160550860882033</v>
+        <v>0.1077099594981366</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.008700872197523329</v>
+        <v>0.1558566714522772</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.1186796733124424</v>
+        <v>0.05176327836859602</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.1328141473822382</v>
+        <v>0.0899764062457713</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.1266383600283395</v>
+        <v>0.1933762126487782</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.2307463369963368</v>
+        <v>0.1802634804804805</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.2307463369963368</v>
+        <v>1866.335668885886</v>
       </c>
       <c r="BQ12" t="n">
-        <v>3.087114216666665</v>
+        <v>331.7704318258259</v>
       </c>
       <c r="BR12" t="n">
-        <v>3.087114216666665</v>
+        <v>329.3444869009008</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>8925.484895195184</v>
       </c>
       <c r="BT12" t="n">
-        <v>0</v>
+        <v>20853.67926786786</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.00384262741473277</v>
+        <v>0.007192865767798956</v>
       </c>
       <c r="BV12" t="n">
-        <v>3.252031875574698e-06</v>
+        <v>8.015128239511424e-06</v>
       </c>
       <c r="BW12" t="n">
-        <v>6.659459035304249e-05</v>
+        <v>0.01160143537509023</v>
       </c>
       <c r="BX12" t="n">
-        <v>7.570517699763447e-05</v>
+        <v>0.02429130203618307</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.01408486485754805</v>
+        <v>0.002679436987464761</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.01763959774487088</v>
+        <v>0.008095753680904072</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.01603727423066734</v>
+        <v>0.03739435961838547</v>
       </c>
       <c r="CB12" t="n">
-        <v>105</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
@@ -3103,241 +3103,241 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>19.167225</v>
+        <v>29.93955319148936</v>
       </c>
       <c r="C13" t="n">
-        <v>19.167225</v>
+        <v>29.93955319148936</v>
       </c>
       <c r="D13" t="n">
-        <v>6.162016666666667</v>
+        <v>74.75010638297873</v>
       </c>
       <c r="E13" t="n">
-        <v>6.288600000000001</v>
+        <v>74.75146808510638</v>
       </c>
       <c r="F13" t="n">
-        <v>1117.090416666667</v>
+        <v>632.1914893617021</v>
       </c>
       <c r="G13" t="n">
-        <v>1427.547166666667</v>
+        <v>881.9787234042553</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8278050562116667</v>
+        <v>0.8459780285063829</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004152125225833333</v>
+        <v>0.003676093172340425</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9021874949341666</v>
+        <v>0.9079047946</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8479366106425</v>
+        <v>0.8789130363106382</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8768211850416667</v>
+        <v>0.8773135968148936</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7733797654008333</v>
+        <v>0.7505104060468084</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7832526406524999</v>
+        <v>0.8306131686531916</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0.635</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="S13" t="n">
-        <v>950</v>
+        <v>598</v>
       </c>
       <c r="T13" t="n">
-        <v>1300</v>
+        <v>773</v>
       </c>
       <c r="U13" t="n">
-        <v>0.4649397051</v>
+        <v>0.3362352235</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0002641955</v>
+        <v>0.0003720199</v>
       </c>
       <c r="W13" t="n">
-        <v>0.55060393</v>
+        <v>0.0452627059</v>
       </c>
       <c r="X13" t="n">
-        <v>0.3918447426</v>
+        <v>0.0024608071</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0335877087</v>
+        <v>0.531952424</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.4287192097</v>
+        <v>0.4187029407</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0986330614</v>
+        <v>0.2829435769</v>
       </c>
       <c r="AB13" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="AD13" t="n">
         <v>100</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AE13" t="n">
         <v>100</v>
       </c>
-      <c r="AD13" t="n">
-        <v>64</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>64</v>
-      </c>
       <c r="AF13" t="n">
-        <v>1300</v>
+        <v>773</v>
       </c>
       <c r="AG13" t="n">
-        <v>1650</v>
+        <v>900</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.9612811595</v>
+        <v>0.9610718389</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0145091733</v>
+        <v>0.0158694535</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.9969526648</v>
+        <v>0.9965388439</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.9911911353</v>
+        <v>0.9936186671</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.9896239704000001</v>
+        <v>0.9740567573</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.9435026164</v>
+        <v>0.9309646368</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.9870299435</v>
+        <v>0.9839267175999999</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.1</v>
+        <v>2.527</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.1</v>
+        <v>2.527</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.013</v>
+        <v>90</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.013</v>
+        <v>90</v>
       </c>
       <c r="AS13" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="AT13" t="n">
-        <v>1400</v>
+        <v>898</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.83898079625</v>
+        <v>0.894939319</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0025519669</v>
+        <v>0.0019747396</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.978462436</v>
+        <v>0.9831503606999999</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.968384983</v>
+        <v>0.9721125261</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.9308542899</v>
+        <v>0.9151289028</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.78918265715</v>
+        <v>0.785581658</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.86249363555</v>
+        <v>0.8588673306</v>
       </c>
       <c r="BB13" t="n">
-        <v>38.46119918258393</v>
+        <v>38.25266699699485</v>
       </c>
       <c r="BC13" t="n">
-        <v>38.46119918258393</v>
+        <v>38.25266699699485</v>
       </c>
       <c r="BD13" t="n">
-        <v>11.12677323568587</v>
+        <v>32.39898494064418</v>
       </c>
       <c r="BE13" t="n">
-        <v>11.27776613362353</v>
+        <v>32.3958028916328</v>
       </c>
       <c r="BF13" t="n">
-        <v>49.33917345923081</v>
+        <v>55.23650269832692</v>
       </c>
       <c r="BG13" t="n">
-        <v>68.18799640764965</v>
+        <v>39.83688991795012</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.1089874993124192</v>
+        <v>0.1213392006633614</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.003511215381006349</v>
+        <v>0.00336590778684376</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.1181841665217693</v>
+        <v>0.1986357666621048</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.1952677126795173</v>
+        <v>0.2575465654557684</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.200841068453403</v>
+        <v>0.1038369365407132</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.117783217733159</v>
+        <v>0.1265764805216439</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.197517852484671</v>
+        <v>0.1406274043086776</v>
       </c>
       <c r="BO13" t="n">
-        <v>1479.263842562395</v>
+        <v>1463.266532382979</v>
       </c>
       <c r="BP13" t="n">
-        <v>1479.263842562395</v>
+        <v>1463.266532382979</v>
       </c>
       <c r="BQ13" t="n">
-        <v>123.8050826383753</v>
+        <v>1049.694225184089</v>
       </c>
       <c r="BR13" t="n">
-        <v>127.1880089647058</v>
+        <v>1049.488044993524</v>
       </c>
       <c r="BS13" t="n">
-        <v>2434.354037640066</v>
+        <v>3051.071230342277</v>
       </c>
       <c r="BT13" t="n">
-        <v>4649.602854089641</v>
+        <v>1586.977798334876</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.01187827500637457</v>
+        <v>0.0147232016176235</v>
       </c>
       <c r="BV13" t="n">
-        <v>1.232863345181556e-05</v>
+        <v>1.132933522953546e-05</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.01396749721644529</v>
+        <v>0.03945616779744214</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.03812947961509051</v>
+        <v>0.06633023337806238</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.04033713477750452</v>
+        <v>0.0107821093901601</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.01387288637957675</v>
+        <v>0.0160216054212461</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.03901330205015625</v>
+        <v>0.01977606684259628</v>
       </c>
       <c r="CB13" t="n">
-        <v>120</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
